--- a/public/rule.xlsx
+++ b/public/rule.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kanay\Desktop\材料\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kanay\seishin-flyer\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAFBD817-0852-4409-A502-88FCC4E87CD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08BC3803-64F8-4A1A-98F7-500E43D13C83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C8C8DD9E-F537-4CE1-B187-F4A51A23E682}"/>
+    <workbookView xWindow="36" yWindow="972" windowWidth="19200" windowHeight="10068" activeTab="1" xr2:uid="{C8C8DD9E-F537-4CE1-B187-F4A51A23E682}"/>
   </bookViews>
   <sheets>
-    <sheet name="〇〇〇店" sheetId="1" r:id="rId1"/>
-    <sheet name="△△△店" sheetId="2" r:id="rId2"/>
-    <sheet name="□□□店" sheetId="3" r:id="rId3"/>
+    <sheet name="南森町店" sheetId="1" r:id="rId1"/>
+    <sheet name="浜松町店" sheetId="2" r:id="rId2"/>
+    <sheet name="さぬき市店" sheetId="3" r:id="rId3"/>
+    <sheet name="板橋店" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="35">
   <si>
     <t>店舗名</t>
     <rPh sb="0" eb="3">
@@ -68,13 +69,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>〇〇〇店</t>
-    <rPh sb="3" eb="4">
-      <t>テン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>大特市</t>
     <rPh sb="0" eb="1">
       <t>ダイ</t>
@@ -190,25 +184,43 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>△△△店</t>
+    <t>香川県さぬき市志度2861番地</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>東京都板橋区東坂下2丁目2番15号</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>南森町店</t>
     <rPh sb="3" eb="4">
       <t>テン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>東京都港区浜松町2-6-2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>□□□店</t>
+    <t>浜松町店</t>
     <rPh sb="3" eb="4">
       <t>テン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>香川県さぬき市志度2861番地</t>
+    <t>さぬき市店</t>
+    <rPh sb="4" eb="5">
+      <t>テン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>板橋店</t>
+    <rPh sb="2" eb="3">
+      <t>テン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>東京都港区浜松町２丁目６−２</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -575,8 +587,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{522C9C8D-8FBC-4656-B7DE-EC22E84AB1B2}">
   <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -586,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.45">
@@ -594,7 +606,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.45">
@@ -602,7 +614,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.45">
@@ -610,7 +622,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.45">
@@ -623,130 +635,130 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -759,8 +771,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{211CC2FC-7AC6-4AA0-8145-2919BC162DD6}">
   <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -770,7 +782,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.45">
@@ -778,7 +790,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.45">
@@ -786,7 +798,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.45">
@@ -794,7 +806,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.45">
@@ -807,130 +819,130 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -944,7 +956,7 @@
   <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -954,7 +966,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.45">
@@ -962,7 +974,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.45">
@@ -970,7 +982,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.45">
@@ -978,7 +990,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.45">
@@ -991,130 +1003,314 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>26</v>
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4762ED81-008E-4B65-9343-4A2A3BA39A0C}">
+  <dimension ref="A1:B21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
